--- a/results/comparaison/GM/depolarization/max_raw_data.xlsx
+++ b/results/comparaison/GM/depolarization/max_raw_data.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:31">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -388,65 +388,267 @@
       <c r="F1" s="1">
         <v>4</v>
       </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:31">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7926470588235295</v>
+        <v>0.7360294117647059</v>
       </c>
       <c r="C2">
-        <v>0.8411764705882354</v>
+        <v>0.849264705882353</v>
       </c>
       <c r="D2">
-        <v>0.7360294117647059</v>
+        <v>0.8169117647058824</v>
       </c>
       <c r="E2">
+        <v>0.8330882352941177</v>
+      </c>
+      <c r="F2">
+        <v>0.7683823529411765</v>
+      </c>
+      <c r="G2">
+        <v>0.7441176470588236</v>
+      </c>
+      <c r="H2">
+        <v>0.7279411764705883</v>
+      </c>
+      <c r="I2">
+        <v>0.7279411764705883</v>
+      </c>
+      <c r="J2">
+        <v>0.8088235294117648</v>
+      </c>
+      <c r="K2">
+        <v>0.7279411764705883</v>
+      </c>
+      <c r="L2">
+        <v>0.7683823529411765</v>
+      </c>
+      <c r="M2">
+        <v>0.7279411764705883</v>
+      </c>
+      <c r="N2">
+        <v>0.6875000000000001</v>
+      </c>
+      <c r="O2">
+        <v>0.7602941176470589</v>
+      </c>
+      <c r="P2">
+        <v>0.6875000000000001</v>
+      </c>
+      <c r="Q2">
+        <v>0.7441176470588236</v>
+      </c>
+      <c r="R2">
+        <v>0.6713235294117648</v>
+      </c>
+      <c r="S2">
+        <v>0.7845588235294119</v>
+      </c>
+      <c r="T2">
+        <v>0.7683823529411765</v>
+      </c>
+      <c r="U2">
+        <v>0.7683823529411765</v>
+      </c>
+      <c r="V2">
+        <v>0.6389705882352942</v>
+      </c>
+      <c r="W2">
+        <v>0.6875000000000001</v>
+      </c>
+      <c r="X2">
+        <v>0.7602941176470589</v>
+      </c>
+      <c r="Y2">
+        <v>0.7036764705882353</v>
+      </c>
+      <c r="Z2">
+        <v>0.7522058823529413</v>
+      </c>
+      <c r="AA2">
+        <v>0.7198529411764707</v>
+      </c>
+      <c r="AB2">
         <v>0.7764705882352942</v>
       </c>
-      <c r="F2">
-        <v>0.7926470588235295</v>
+      <c r="AC2">
+        <v>0.7683823529411765</v>
+      </c>
+      <c r="AD2">
+        <v>0.7279411764705883</v>
+      </c>
+      <c r="AE2">
+        <v>0.7198529411764707</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:31">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.7441176470588236</v>
-      </c>
       <c r="C3">
-        <v>0.849264705882353</v>
+        <v>0.7441176470588236</v>
       </c>
       <c r="D3">
+        <v>0.7845588235294119</v>
+      </c>
+      <c r="E3">
+        <v>0.7441176470588236</v>
+      </c>
+      <c r="F3">
+        <v>0.8411764705882354</v>
+      </c>
+      <c r="G3">
+        <v>0.7441176470588236</v>
+      </c>
+      <c r="H3">
+        <v>0.7360294117647059</v>
+      </c>
+      <c r="I3">
+        <v>0.711764705882353</v>
+      </c>
+      <c r="J3">
+        <v>0.7764705882352942</v>
+      </c>
+      <c r="K3">
+        <v>0.7198529411764707</v>
+      </c>
+      <c r="L3">
+        <v>0.7845588235294119</v>
+      </c>
+      <c r="M3">
+        <v>0.7441176470588236</v>
+      </c>
+      <c r="N3">
+        <v>0.7360294117647059</v>
+      </c>
+      <c r="O3">
+        <v>0.711764705882353</v>
+      </c>
+      <c r="P3">
+        <v>0.6955882352941177</v>
+      </c>
+      <c r="Q3">
+        <v>0.7279411764705883</v>
+      </c>
+      <c r="R3">
+        <v>0.6794117647058824</v>
+      </c>
+      <c r="S3">
+        <v>0.7602941176470589</v>
+      </c>
+      <c r="T3">
+        <v>0.7441176470588236</v>
+      </c>
+      <c r="U3">
         <v>0.7522058823529413</v>
       </c>
-      <c r="E3">
+      <c r="V3">
+        <v>0.711764705882353</v>
+      </c>
+      <c r="W3">
+        <v>0.711764705882353</v>
+      </c>
+      <c r="X3">
+        <v>0.8411764705882354</v>
+      </c>
+      <c r="Y3">
+        <v>0.7198529411764707</v>
+      </c>
+      <c r="Z3">
+        <v>0.7764705882352942</v>
+      </c>
+      <c r="AA3">
+        <v>0.7360294117647059</v>
+      </c>
+      <c r="AB3">
+        <v>0.7683823529411765</v>
+      </c>
+      <c r="AC3">
         <v>0.7522058823529413</v>
       </c>
-      <c r="F3">
-        <v>0.7845588235294119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.9139705882352942</v>
-      </c>
-      <c r="C4">
-        <v>0.8330882352941177</v>
-      </c>
-      <c r="D4">
-        <v>0.8088235294117648</v>
-      </c>
-      <c r="E4">
-        <v>0.8169117647058824</v>
-      </c>
-      <c r="F4">
-        <v>0.8411764705882354</v>
+      <c r="AD3">
+        <v>0.7441176470588236</v>
+      </c>
+      <c r="AE3">
+        <v>0.7279411764705883</v>
       </c>
     </row>
   </sheetData>
